--- a/docs/Flows.xlsx
+++ b/docs/Flows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acerta-my.sharepoint.com/personal/ronny_geerkens_acerta_be/Documents/Documents/Documentation/Projects/Multi ESS/Documentatie/Teams Files/Published/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataSources\Source_Codes\Documentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5387" documentId="11_F25DC773A252ABDACC1048E231DD66765BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EC79BB-89A2-4109-A6B0-682FB61079DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21AA715-3E2B-4381-AD05-2F2AE3EBEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="480" windowWidth="28770" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="46080" windowHeight="18990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -477,39 +477,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -4428,7 +4398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB2119F6-226C-4B5E-A905-D479589EFC3C}" name="Draaitabel2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component / Raakvlak">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB2119F6-226C-4B5E-A905-D479589EFC3C}" name="Draaitabel2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component / Raakvlak">
   <location ref="B5:F465" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="5">
     <pivotField name="Flow Direction" axis="axisRow" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -7033,10 +7003,10 @@
     <i/>
   </colItems>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -7384,7 +7354,7 @@
     <tableColumn id="2" xr3:uid="{F3FA9AAE-BB5B-45B9-9424-782318C96E57}" name="Applied To"/>
     <tableColumn id="3" xr3:uid="{4A87AA11-3B21-4887-8BD4-F0302ACF4677}" name="Source"/>
     <tableColumn id="4" xr3:uid="{E04AE390-C314-4249-8A4A-59861DB5D191}" name="Destination"/>
-    <tableColumn id="5" xr3:uid="{D15139B6-B7E1-495E-A7EF-0F0A8DF1A84F}" name="Ports" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D15139B6-B7E1-495E-A7EF-0F0A8DF1A84F}" name="Ports" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15519,7 +15489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58C1364-43DA-4877-A7D4-10CE508BA03B}">
   <dimension ref="B2:F465"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
